--- a/resources/ElenMatchR_template.xlsx
+++ b/resources/ElenMatchR_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/turnbaughlab/qb3share/jbisanz/ElGenomes2019/ElenMatchR_v1.0/ElenMatchR/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141F56E6-CB29-1F44-A0C7-8102C1C00726}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489A7C06-C376-3B43-B68B-CF537ED9F39E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35660" windowHeight="23220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genomes" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="378">
   <si>
     <t>Adlercreutzia_equolifaciens_DSM19450</t>
   </si>
@@ -1184,6 +1184,9 @@
   </si>
   <si>
     <t>Strain_Name</t>
+  </si>
+  <si>
+    <t>PTJ0094</t>
   </si>
 </sst>
 </file>
@@ -2087,11 +2090,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3119,7 +3122,7 @@
         <v>105</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>246</v>
+        <v>377</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>207</v>
